--- a/data/trans_bre/P37-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P37-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6979802053036999</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.300829068826446</v>
+        <v>5.300829068826435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02623159535716771</v>
@@ -649,7 +649,7 @@
         <v>0.04089700694242678</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1648971544103953</v>
+        <v>0.164897154410395</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.20618375605338</v>
+        <v>-4.156535082873861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.738608683899989</v>
+        <v>-5.492182017411274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.395431415751501</v>
+        <v>-3.182806620048041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5670186611624689</v>
+        <v>0.6945356563633038</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2465839789233341</v>
+        <v>-0.2413443323324035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2487861767281934</v>
+        <v>-0.2415390070535189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1744039962211227</v>
+        <v>-0.173151146869158</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01352307898618442</v>
+        <v>0.02040638554996401</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.173278119881114</v>
+        <v>3.397344468729392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.266447294242389</v>
+        <v>3.054424802231865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.016176265359206</v>
+        <v>5.079461952750471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.85307641567675</v>
+        <v>9.587299153484381</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2373005347580812</v>
+        <v>0.2584549500261282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1864328342119925</v>
+        <v>0.172711401605521</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3319940417965596</v>
+        <v>0.3449297175976809</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3327656997339192</v>
+        <v>0.3257038783064268</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.181609224815598</v>
+        <v>-0.9638788329345865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.891137770544111</v>
+        <v>-2.309127398229018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.00660673748628034</v>
+        <v>0.1113504305868278</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.984880414546597</v>
+        <v>5.037469964639006</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0760866907865317</v>
+        <v>-0.06430250970709807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1510151470793557</v>
+        <v>-0.1213657655873993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0003549034031116732</v>
+        <v>0.002658606130045982</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1745751910087557</v>
+        <v>0.1705834865857772</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.294891537588505</v>
+        <v>5.564078110322011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.374551048823763</v>
+        <v>4.385798632722878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.073371907971178</v>
+        <v>6.62427411365009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.63807829303034</v>
+        <v>12.50928063006493</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4400263246993271</v>
+        <v>0.4477019281166908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.272068486616491</v>
+        <v>0.2724525043283037</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5409493982995337</v>
+        <v>0.5042620940782803</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.530501607030165</v>
+        <v>0.5104157157648914</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.9863587327492818</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.25642954752237</v>
+        <v>2.256429547522365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2428702550704125</v>
@@ -849,7 +849,7 @@
         <v>-0.05924190731532173</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07587196684823501</v>
+        <v>0.07587196684823481</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5735241935985186</v>
+        <v>-0.8417313060489701</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.368326307975274</v>
+        <v>-2.687831871710117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.659426485775096</v>
+        <v>-4.546887178078284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.51339063785498</v>
+        <v>-2.255417476666406</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.04422694661734707</v>
+        <v>-0.06019052521931309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1331404237351487</v>
+        <v>-0.1519977438559887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2464059094042055</v>
+        <v>-0.2554508539730318</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07932736499566651</v>
+        <v>-0.07091740090946293</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.811135275795261</v>
+        <v>6.834412501418996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.498882506114715</v>
+        <v>5.361183285385421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.083094756420438</v>
+        <v>2.709953854332686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.825801960804465</v>
+        <v>6.64188567954809</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6071405712669604</v>
+        <v>0.6150809551594512</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4118844286569305</v>
+        <v>0.4074869202259835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2135255677845817</v>
+        <v>0.1844943309036446</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.246985029332599</v>
+        <v>0.2433081362307026</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.070993752148675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.790138799603414</v>
+        <v>2.790138799603409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1880851129767739</v>
@@ -949,7 +949,7 @@
         <v>0.134412501706917</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.07867332750007547</v>
+        <v>0.0786733275000753</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8666899441270945</v>
+        <v>-0.529972937705647</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.930415883930771</v>
+        <v>-2.686398897066044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.221767177892843</v>
+        <v>-1.591914014900097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.034663324557018</v>
+        <v>-1.017590990134149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05996464267620573</v>
+        <v>-0.03662216329471009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1539620419625873</v>
+        <v>-0.1460132876252306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07478131120291678</v>
+        <v>-0.09330301921873156</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02618775548438092</v>
+        <v>-0.02621212089352951</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.464681754176034</v>
+        <v>5.433301941971347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.400866915617121</v>
+        <v>4.230745919392024</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.48668535532876</v>
+        <v>5.303596536418064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.66340896975534</v>
+        <v>6.810034823656672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4476279117562123</v>
+        <v>0.4579266614514922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2868108405063504</v>
+        <v>0.2741244034518632</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3910200426170461</v>
+        <v>0.3871327114974481</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2012745377240976</v>
+        <v>0.2100448757452135</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.548545922044658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.070686132510366</v>
+        <v>5.070686132510355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1421508969526766</v>
@@ -1049,7 +1049,7 @@
         <v>0.09836866370166046</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1639779295424839</v>
+        <v>0.1639779295424836</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3711407881959419</v>
+        <v>0.3007184654910354</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.352257439982382</v>
+        <v>-1.454013131550714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.339361056848153</v>
+        <v>-0.2657529030055137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.995134033648083</v>
+        <v>2.98380244845058</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02602726350281433</v>
+        <v>0.0206992425209637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.07451690616898314</v>
+        <v>-0.07773170477975111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.02018695278469205</v>
+        <v>-0.01716788689338213</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09331217708034459</v>
+        <v>0.09195134684883524</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.968739008010021</v>
+        <v>3.783272255908646</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.391254047246718</v>
+        <v>2.593594372549173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.407370926557471</v>
+        <v>3.317687373124776</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.014872985108305</v>
+        <v>7.213326423910103</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3035113030653304</v>
+        <v>0.2898399819219594</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1397242253348349</v>
+        <v>0.1573644432727679</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.233760660825215</v>
+        <v>0.2190188971939803</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2361074331520234</v>
+        <v>0.2441720898028267</v>
       </c>
     </row>
     <row r="19">
